--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medication.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -430,7 +430,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -870,7 +870,7 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>Use GTIN for Swiss products</t>
+    <t>GTIN for Swiss products</t>
   </si>
   <si>
     <t>Medication.code.coding:GTIN.id</t>
@@ -1012,7 +1012,7 @@
     <t>ATC</t>
   </si>
   <si>
-    <t>Use ATC for foreign products</t>
+    <t>ATC for foreign products</t>
   </si>
   <si>
     <t>Medication.code.coding:ATC.id</t>
@@ -1124,7 +1124,7 @@
     <t>When Medication is referenced from MedicationRequest, this is the ordered form.  When Medication is referenced within MedicationDispense, this is the dispensed form.  When Medication is referenced within MedicationAdministration, this is administered form.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-emed/ValueSet/edqm-pharmaceuticaldoseform</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/edqm-pharmaceuticaldoseform</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -1183,7 +1183,7 @@
     <t>Medication.amount</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ratio}
+    <t xml:space="preserve">Ratio {http://fhir.ch/ig/ch-core/StructureDefinition/ch-emed-ratio-with-emed-units}
 </t>
   </si>
   <si>
@@ -1250,6 +1250,9 @@
     <t>The ingredient may reference a substance (for example, amoxicillin) or another medication (for example in the case of a compounded product, Glaxal Base).</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/ActivePharmaceuticalIngredient</t>
+  </si>
+  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -1288,9 +1291,6 @@
   </si>
   <si>
     <t>Ingredients coded with SNOMED CT</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-emed/ValueSet/ActivePharmaceuticalIngredient</t>
   </si>
   <si>
     <t>Medication.ingredient.item[x]:itemCodeableConcept.text</t>
@@ -1704,45 +1704,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.7421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.21875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.61328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.25" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.44140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.62109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.29296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.38671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="194.96484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="173.70703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="173.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9446,26 +9446,24 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>391</v>
@@ -9486,24 +9484,24 @@
         <v>254</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>391</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>78</v>
@@ -9560,13 +9558,11 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -9602,21 +9598,21 @@
         <v>254</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9725,10 +9721,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9837,10 +9833,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9866,7 +9862,7 @@
         <v>134</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>262</v>
@@ -9904,7 +9900,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medication.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="437">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -423,7 +423,7 @@
     <t>Medication.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -455,7 +455,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -473,7 +473,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -517,7 +517,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -590,7 +590,7 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -689,7 +689,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -774,7 +774,7 @@
     <t>Medication.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -811,7 +811,7 @@
     <t>A coded concept that defines the type of a medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode@@ -1190,21 +1190,10 @@
     <t>Package size</t>
   </si>
   <si>
-    <t>A relationship of two Quantity values - expressed as a numerator and a denominator.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
+    <t>Specific amount of the drug in the packaged product.  For example, when specifying a product that has the same strength (For example, Insulin glargine 100 unit per mL solution for injection), this attribute provides additional clarification of the package amount (For example, 3 mL, 10mL, etc.).</t>
+  </si>
+  <si>
+    <t>.quantity</t>
   </si>
   <si>
     <t>Medication.ingredient</t>
@@ -1241,6 +1230,10 @@
     <t>Medication.ingredient.item[x]</t>
   </si>
   <si>
+    <t>CodeableConcept
+Reference(Substance|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)</t>
+  </si>
+  <si>
     <t>The actual ingredient or content</t>
   </si>
   <si>
@@ -1322,6 +1315,15 @@
   </si>
   <si>
     <t>Dose per unit</t>
+  </si>
+  <si>
+    <t>Specifies how many (or how much) of the items there are in this Medication.  For example, 250 mg per tablet.  This is expressed as a ratio where the numerator is 250mg and the denominator is 1 tablet.</t>
+  </si>
+  <si>
+    <t>//element(*,DrugCodedType)/Strength</t>
+  </si>
+  <si>
+    <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
   </si>
   <si>
     <t>Medication.batch</t>
@@ -1704,45 +1706,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.8046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.4140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.3359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="196.6875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.38671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="173.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="167.640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5275,7 +5277,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>269</v>
       </c>
@@ -7107,7 +7109,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>328</v>
       </c>
@@ -7787,7 +7789,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>361</v>
       </c>
@@ -8842,7 +8844,7 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>374</v>
@@ -8853,9 +8855,7 @@
       <c r="M63" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -8913,30 +8913,30 @@
         <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>379</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8959,16 +8959,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9018,7 +9018,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9036,7 +9036,7 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9047,10 +9047,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9159,10 +9159,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9271,10 +9271,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9356,7 +9356,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9385,10 +9385,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9411,17 +9411,17 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>207</v>
+        <v>389</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9450,23 +9450,23 @@
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>88</v>
@@ -9484,24 +9484,24 @@
         <v>254</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>78</v>
@@ -9526,14 +9526,14 @@
         <v>207</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -9580,7 +9580,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>88</v>
@@ -9598,21 +9598,21 @@
         <v>254</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9721,10 +9721,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9833,10 +9833,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9862,7 +9862,7 @@
         <v>134</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>262</v>
@@ -9900,7 +9900,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -9945,12 +9945,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9976,7 +9976,7 @@
         <v>102</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>330</v>
@@ -10063,10 +10063,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10092,14 +10092,14 @@
         <v>310</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10148,7 +10148,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10166,7 +10166,7 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10175,12 +10175,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10206,14 +10206,12 @@
         <v>374</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10262,7 +10260,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10271,30 +10269,30 @@
         <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>379</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>175</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10317,13 +10315,13 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10374,7 +10372,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10392,7 +10390,7 @@
         <v>347</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
@@ -10403,10 +10401,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10515,10 +10513,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10627,10 +10625,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10712,7 +10710,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -10741,10 +10739,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10770,10 +10768,10 @@
         <v>102</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10824,7 +10822,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -10848,15 +10846,15 @@
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10879,13 +10877,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10936,7 +10934,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -10954,23 +10952,23 @@
         <v>347</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AN81">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
